--- a/resources/excel/dutch-dance-2.xlsx
+++ b/resources/excel/dutch-dance-2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>Activity Title</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>r.moorlag@pierson.nl</t>
-  </si>
-  <si>
-    <t>51 ,699560</t>
   </si>
   <si>
     <r>
@@ -1672,20 +1669,20 @@
       <c r="N2" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="O2" t="s" s="6">
-        <v>28</v>
+      <c r="O2" s="7">
+        <v>51.69956</v>
       </c>
       <c r="P2" s="7">
         <v>5.31796</v>
       </c>
       <c r="Q2" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R2" s="11"/>
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="12">
         <v>19</v>
@@ -1727,20 +1724,20 @@
       <c r="N3" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O3" t="s" s="12">
-        <v>28</v>
+      <c r="O3" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P3" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q3" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" s="16"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="12">
         <v>19</v>
@@ -1782,20 +1779,20 @@
       <c r="N4" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O4" t="s" s="12">
-        <v>28</v>
+      <c r="O4" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P4" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q4" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" s="16"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="12">
         <v>19</v>
@@ -1837,20 +1834,20 @@
       <c r="N5" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O5" t="s" s="12">
-        <v>28</v>
+      <c r="O5" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P5" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q5" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R5" s="16"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="12">
         <v>19</v>
@@ -1892,20 +1889,20 @@
       <c r="N6" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O6" t="s" s="12">
-        <v>28</v>
+      <c r="O6" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P6" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q6" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R6" s="16"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="12">
         <v>19</v>
@@ -1924,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s" s="12">
         <v>24</v>
@@ -1947,20 +1944,20 @@
       <c r="N7" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O7" t="s" s="12">
-        <v>28</v>
+      <c r="O7" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P7" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q7" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R7" s="16"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="12">
         <v>19</v>
@@ -1979,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s" s="12">
         <v>24</v>
@@ -2002,20 +1999,20 @@
       <c r="N8" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O8" t="s" s="12">
-        <v>28</v>
+      <c r="O8" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P8" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q8" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R8" s="16"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="12">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="12">
         <v>19</v>
@@ -2057,20 +2054,20 @@
       <c r="N9" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O9" t="s" s="12">
-        <v>28</v>
+      <c r="O9" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P9" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q9" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R9" s="16"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="12">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="12">
         <v>19</v>
@@ -2112,20 +2109,20 @@
       <c r="N10" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O10" t="s" s="12">
-        <v>28</v>
+      <c r="O10" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P10" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q10" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R10" s="16"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="12">
         <v>19</v>
@@ -2167,20 +2164,20 @@
       <c r="N11" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O11" t="s" s="12">
-        <v>28</v>
+      <c r="O11" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P11" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q11" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R11" s="16"/>
     </row>
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="12">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s" s="12">
         <v>19</v>
@@ -2222,20 +2219,20 @@
       <c r="N12" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O12" t="s" s="12">
-        <v>28</v>
+      <c r="O12" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P12" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q12" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R12" s="16"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="12">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s" s="12">
         <v>19</v>
@@ -2277,20 +2274,20 @@
       <c r="N13" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O13" t="s" s="12">
-        <v>28</v>
+      <c r="O13" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P13" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q13" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R13" s="16"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="12">
         <v>19</v>
@@ -2309,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s" s="12">
         <v>24</v>
@@ -2332,20 +2329,20 @@
       <c r="N14" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O14" t="s" s="12">
-        <v>28</v>
+      <c r="O14" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P14" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q14" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R14" s="16"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s" s="12">
         <v>19</v>
@@ -2364,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s" s="12">
         <v>24</v>
@@ -2387,20 +2384,20 @@
       <c r="N15" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O15" t="s" s="12">
-        <v>28</v>
+      <c r="O15" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P15" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q15" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R15" s="16"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s" s="12">
         <v>19</v>
@@ -2442,20 +2439,20 @@
       <c r="N16" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O16" t="s" s="12">
-        <v>28</v>
+      <c r="O16" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P16" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q16" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R16" s="16"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="12">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s" s="12">
         <v>19</v>
@@ -2497,20 +2494,20 @@
       <c r="N17" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O17" t="s" s="12">
-        <v>28</v>
+      <c r="O17" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P17" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q17" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R17" s="16"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s" s="12">
         <v>19</v>
@@ -2552,20 +2549,20 @@
       <c r="N18" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O18" t="s" s="12">
-        <v>28</v>
+      <c r="O18" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P18" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q18" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R18" s="16"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s" s="12">
         <v>19</v>
@@ -2607,20 +2604,20 @@
       <c r="N19" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O19" t="s" s="12">
-        <v>28</v>
+      <c r="O19" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P19" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q19" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R19" s="16"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s" s="12">
         <v>19</v>
@@ -2662,20 +2659,20 @@
       <c r="N20" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O20" t="s" s="12">
-        <v>28</v>
+      <c r="O20" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P20" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q20" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R20" s="16"/>
     </row>
     <row r="21" ht="15.35" customHeight="1">
       <c r="A21" t="s" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s" s="12">
         <v>19</v>
@@ -2694,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="G21" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s" s="12">
         <v>24</v>
@@ -2717,20 +2714,20 @@
       <c r="N21" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O21" t="s" s="12">
-        <v>28</v>
+      <c r="O21" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P21" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q21" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R21" s="16"/>
     </row>
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" t="s" s="12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s" s="12">
         <v>19</v>
@@ -2749,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="G22" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s" s="12">
         <v>24</v>
@@ -2772,20 +2769,20 @@
       <c r="N22" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O22" t="s" s="12">
-        <v>28</v>
+      <c r="O22" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P22" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q22" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R22" s="16"/>
     </row>
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" t="s" s="12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s" s="12">
         <v>19</v>
@@ -2827,20 +2824,20 @@
       <c r="N23" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O23" t="s" s="12">
-        <v>28</v>
+      <c r="O23" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P23" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q23" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R23" s="16"/>
     </row>
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" t="s" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s" s="12">
         <v>19</v>
@@ -2882,20 +2879,20 @@
       <c r="N24" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O24" t="s" s="12">
-        <v>28</v>
+      <c r="O24" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P24" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q24" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R24" s="16"/>
     </row>
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="12">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s" s="12">
         <v>19</v>
@@ -2937,20 +2934,20 @@
       <c r="N25" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O25" t="s" s="12">
-        <v>28</v>
+      <c r="O25" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P25" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q25" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R25" s="16"/>
     </row>
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" t="s" s="12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s" s="12">
         <v>19</v>
@@ -2992,20 +2989,20 @@
       <c r="N26" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O26" t="s" s="12">
-        <v>28</v>
+      <c r="O26" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P26" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q26" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R26" s="16"/>
     </row>
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="12">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s" s="12">
         <v>19</v>
@@ -3047,20 +3044,20 @@
       <c r="N27" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O27" t="s" s="12">
-        <v>28</v>
+      <c r="O27" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P27" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q27" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R27" s="16"/>
     </row>
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="12">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s" s="12">
         <v>19</v>
@@ -3079,7 +3076,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s" s="12">
         <v>24</v>
@@ -3102,20 +3099,20 @@
       <c r="N28" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O28" t="s" s="12">
-        <v>28</v>
+      <c r="O28" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P28" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q28" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R28" s="16"/>
     </row>
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="12">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s" s="12">
         <v>19</v>
@@ -3134,7 +3131,7 @@
         <v>3</v>
       </c>
       <c r="G29" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s" s="12">
         <v>24</v>
@@ -3157,20 +3154,20 @@
       <c r="N29" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O29" t="s" s="12">
-        <v>28</v>
+      <c r="O29" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P29" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q29" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R29" s="16"/>
     </row>
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="12">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s" s="12">
         <v>19</v>
@@ -3212,20 +3209,20 @@
       <c r="N30" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O30" t="s" s="12">
-        <v>28</v>
+      <c r="O30" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P30" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q30" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R30" s="16"/>
     </row>
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s" s="12">
         <v>19</v>
@@ -3267,20 +3264,20 @@
       <c r="N31" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O31" t="s" s="12">
-        <v>28</v>
+      <c r="O31" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P31" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q31" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R31" s="16"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="12">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s" s="12">
         <v>19</v>
@@ -3322,20 +3319,20 @@
       <c r="N32" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O32" t="s" s="12">
-        <v>28</v>
+      <c r="O32" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P32" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q32" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R32" s="16"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s" s="12">
         <v>19</v>
@@ -3377,20 +3374,20 @@
       <c r="N33" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O33" t="s" s="12">
-        <v>28</v>
+      <c r="O33" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P33" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q33" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R33" s="16"/>
     </row>
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s" s="12">
         <v>19</v>
@@ -3432,20 +3429,20 @@
       <c r="N34" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O34" t="s" s="12">
-        <v>28</v>
+      <c r="O34" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P34" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q34" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R34" s="16"/>
     </row>
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="12">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s" s="12">
         <v>19</v>
@@ -3464,7 +3461,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s" s="12">
         <v>24</v>
@@ -3487,20 +3484,20 @@
       <c r="N35" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O35" t="s" s="12">
-        <v>28</v>
+      <c r="O35" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P35" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q35" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R35" s="16"/>
     </row>
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" t="s" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s" s="12">
         <v>19</v>
@@ -3519,7 +3516,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s" s="12">
         <v>24</v>
@@ -3542,20 +3539,20 @@
       <c r="N36" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O36" t="s" s="12">
-        <v>28</v>
+      <c r="O36" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P36" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q36" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R36" s="16"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
       <c r="A37" t="s" s="12">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s" s="12">
         <v>19</v>
@@ -3597,20 +3594,20 @@
       <c r="N37" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O37" t="s" s="12">
-        <v>28</v>
+      <c r="O37" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P37" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q37" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R37" s="16"/>
     </row>
     <row r="38" ht="15.35" customHeight="1">
       <c r="A38" t="s" s="12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s" s="12">
         <v>19</v>
@@ -3652,20 +3649,20 @@
       <c r="N38" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O38" t="s" s="12">
-        <v>28</v>
+      <c r="O38" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P38" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q38" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R38" s="16"/>
     </row>
     <row r="39" ht="15.35" customHeight="1">
       <c r="A39" t="s" s="12">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s" s="12">
         <v>19</v>
@@ -3707,20 +3704,20 @@
       <c r="N39" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O39" t="s" s="12">
-        <v>28</v>
+      <c r="O39" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P39" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q39" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R39" s="16"/>
     </row>
     <row r="40" ht="15.35" customHeight="1">
       <c r="A40" t="s" s="12">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s" s="12">
         <v>19</v>
@@ -3762,20 +3759,20 @@
       <c r="N40" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O40" t="s" s="12">
-        <v>28</v>
+      <c r="O40" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P40" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q40" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R40" s="16"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
       <c r="A41" t="s" s="12">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s" s="12">
         <v>19</v>
@@ -3817,14 +3814,14 @@
       <c r="N41" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="O41" t="s" s="12">
-        <v>28</v>
+      <c r="O41" s="13">
+        <v>51.69956</v>
       </c>
       <c r="P41" s="13">
         <v>5.31796</v>
       </c>
       <c r="Q41" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R41" s="16"/>
     </row>
